--- a/FS_thesis_BPS/EADs.xlsx
+++ b/FS_thesis_BPS/EADs.xlsx
@@ -447,12 +447,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -517,7 +517,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -532,12 +532,12 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -557,7 +557,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -567,17 +567,17 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -602,12 +602,12 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -617,12 +617,12 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -637,7 +637,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -652,7 +652,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -667,7 +667,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -677,7 +677,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -712,7 +712,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -727,12 +727,12 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -747,12 +747,12 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -787,12 +787,12 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -802,7 +802,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -822,7 +822,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -842,7 +842,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -852,17 +852,17 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -877,12 +877,12 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -892,7 +892,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -932,7 +932,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -957,7 +957,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -982,7 +982,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1017,7 +1017,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1027,22 +1027,22 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1052,7 +1052,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1067,17 +1067,17 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -1097,17 +1097,17 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1122,7 +1122,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -1132,7 +1132,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -1142,12 +1142,12 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -1157,7 +1157,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1167,7 +1167,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -1187,27 +1187,27 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1217,12 +1217,12 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -1252,7 +1252,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -1267,7 +1267,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -1277,12 +1277,12 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -1312,7 +1312,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -1322,7 +1322,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -1332,7 +1332,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -1347,17 +1347,17 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -1372,7 +1372,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -1392,17 +1392,17 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -1417,7 +1417,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -1432,12 +1432,12 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -1447,7 +1447,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -1492,7 +1492,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -1502,7 +1502,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -1547,12 +1547,12 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -1602,12 +1602,12 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -1617,12 +1617,12 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -1632,7 +1632,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -1647,7 +1647,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -1657,7 +1657,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -1667,17 +1667,17 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -1697,12 +1697,12 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -1717,12 +1717,12 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -1732,7 +1732,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -1742,7 +1742,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -1752,12 +1752,12 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -1782,7 +1782,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -1792,7 +1792,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -1802,7 +1802,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -1812,7 +1812,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -1822,7 +1822,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -1832,7 +1832,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -1852,27 +1852,27 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -1882,7 +1882,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -1892,12 +1892,12 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -1917,12 +1917,12 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -1937,7 +1937,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -1952,17 +1952,17 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -1977,7 +1977,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -1987,7 +1987,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -2007,12 +2007,12 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -2027,7 +2027,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -2037,7 +2037,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -2062,7 +2062,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -2092,27 +2092,27 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -2122,7 +2122,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -2137,7 +2137,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -2152,17 +2152,17 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -2172,7 +2172,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -2182,7 +2182,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -2207,17 +2207,17 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -2227,7 +2227,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -2237,12 +2237,12 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -2257,17 +2257,17 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -2277,7 +2277,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -2287,7 +2287,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -2302,7 +2302,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -2317,7 +2317,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -2327,7 +2327,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -2342,17 +2342,17 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -2367,7 +2367,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -2377,22 +2377,22 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -2407,17 +2407,17 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -2447,7 +2447,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -2457,7 +2457,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -2467,12 +2467,12 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -2482,7 +2482,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -2517,12 +2517,12 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -2562,7 +2562,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -2607,12 +2607,12 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -2672,7 +2672,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -2682,17 +2682,17 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -2702,7 +2702,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -2742,7 +2742,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -2772,12 +2772,12 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -2797,12 +2797,12 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -2812,7 +2812,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -2822,7 +2822,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -2832,12 +2832,12 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -2852,17 +2852,17 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -2872,22 +2872,22 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -2907,12 +2907,12 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -2927,7 +2927,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -2967,7 +2967,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -2997,12 +2997,12 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -3087,7 +3087,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -3182,7 +3182,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -3217,7 +3217,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -3242,7 +3242,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
@@ -3262,12 +3262,12 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -3277,12 +3277,12 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -3302,7 +3302,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -3342,7 +3342,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -3392,17 +3392,17 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -3417,7 +3417,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -3547,7 +3547,7 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -3627,7 +3627,7 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -3767,7 +3767,7 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -4012,7 +4012,7 @@
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
@@ -4137,7 +4137,7 @@
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -4492,7 +4492,7 @@
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813">
@@ -4562,7 +4562,7 @@
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827">
@@ -4572,7 +4572,7 @@
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829">
@@ -4622,7 +4622,7 @@
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839">
@@ -4982,7 +4982,7 @@
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911">
@@ -5262,7 +5262,7 @@
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967">
@@ -5332,7 +5332,7 @@
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981">
@@ -5367,7 +5367,7 @@
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988">
@@ -5422,7 +5422,7 @@
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999">
@@ -5432,7 +5432,7 @@
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001">
@@ -5512,7 +5512,7 @@
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017">
@@ -5667,7 +5667,7 @@
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048">
@@ -5682,7 +5682,7 @@
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051">
@@ -5692,7 +5692,7 @@
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053">
@@ -5712,7 +5712,7 @@
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057">
@@ -5737,7 +5737,7 @@
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062">
@@ -5797,7 +5797,7 @@
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074">
@@ -5817,7 +5817,7 @@
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078">
@@ -5867,7 +5867,7 @@
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088">
@@ -6062,7 +6062,7 @@
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127">
@@ -6202,7 +6202,7 @@
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155">
@@ -6212,7 +6212,7 @@
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157">
@@ -6312,7 +6312,7 @@
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177">
@@ -6467,12 +6467,12 @@
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209">
@@ -6547,7 +6547,7 @@
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224">
@@ -6567,7 +6567,7 @@
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228">
@@ -6777,7 +6777,7 @@
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270">
@@ -6942,7 +6942,7 @@
     </row>
     <row r="1302">
       <c r="A1302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303">
@@ -7002,7 +7002,7 @@
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315">
@@ -7042,7 +7042,7 @@
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323">
@@ -7187,12 +7187,12 @@
     </row>
     <row r="1351">
       <c r="A1351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1353">
@@ -7212,7 +7212,7 @@
     </row>
     <row r="1356">
       <c r="A1356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1357">
@@ -7222,7 +7222,7 @@
     </row>
     <row r="1358">
       <c r="A1358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1359">
@@ -7257,7 +7257,7 @@
     </row>
     <row r="1365">
       <c r="A1365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1366">
@@ -7287,7 +7287,7 @@
     </row>
     <row r="1371">
       <c r="A1371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1372">
@@ -7512,7 +7512,7 @@
     </row>
     <row r="1416">
       <c r="A1416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1417">
@@ -7527,7 +7527,7 @@
     </row>
     <row r="1419">
       <c r="A1419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1420">
@@ -7632,7 +7632,7 @@
     </row>
     <row r="1440">
       <c r="A1440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1441">
@@ -7647,7 +7647,7 @@
     </row>
     <row r="1443">
       <c r="A1443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1444">
@@ -7727,7 +7727,7 @@
     </row>
     <row r="1459">
       <c r="A1459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1460">
@@ -7787,7 +7787,7 @@
     </row>
     <row r="1471">
       <c r="A1471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1472">
@@ -7837,7 +7837,7 @@
     </row>
     <row r="1481">
       <c r="A1481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1482">
@@ -7952,7 +7952,7 @@
     </row>
     <row r="1504">
       <c r="A1504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1505">
@@ -7962,7 +7962,7 @@
     </row>
     <row r="1506">
       <c r="A1506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1507">
@@ -7987,7 +7987,7 @@
     </row>
     <row r="1511">
       <c r="A1511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1512">
@@ -7997,7 +7997,7 @@
     </row>
     <row r="1513">
       <c r="A1513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1514">
@@ -8027,7 +8027,7 @@
     </row>
     <row r="1519">
       <c r="A1519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1520">
@@ -8037,12 +8037,12 @@
     </row>
     <row r="1521">
       <c r="A1521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1523">
@@ -8187,7 +8187,7 @@
     </row>
     <row r="1551">
       <c r="A1551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1552">
@@ -8267,7 +8267,7 @@
     </row>
     <row r="1567">
       <c r="A1567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1568">
@@ -8327,7 +8327,7 @@
     </row>
     <row r="1579">
       <c r="A1579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580">
@@ -8417,7 +8417,7 @@
     </row>
     <row r="1597">
       <c r="A1597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1598">
@@ -8477,12 +8477,12 @@
     </row>
     <row r="1609">
       <c r="A1609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1611">
@@ -8597,7 +8597,7 @@
     </row>
     <row r="1633">
       <c r="A1633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1634">
@@ -8742,7 +8742,7 @@
     </row>
     <row r="1662">
       <c r="A1662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1663">
@@ -8752,7 +8752,7 @@
     </row>
     <row r="1664">
       <c r="A1664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1665">
@@ -8882,7 +8882,7 @@
     </row>
     <row r="1690">
       <c r="A1690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1691">
@@ -8927,7 +8927,7 @@
     </row>
     <row r="1699">
       <c r="A1699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1700">
@@ -8972,7 +8972,7 @@
     </row>
     <row r="1708">
       <c r="A1708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1709">
@@ -9077,7 +9077,7 @@
     </row>
     <row r="1729">
       <c r="A1729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1730">
@@ -9282,7 +9282,7 @@
     </row>
     <row r="1770">
       <c r="A1770" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1771">
@@ -9342,7 +9342,7 @@
     </row>
     <row r="1782">
       <c r="A1782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1783">
@@ -9362,7 +9362,7 @@
     </row>
     <row r="1786">
       <c r="A1786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1787">
@@ -9447,7 +9447,7 @@
     </row>
     <row r="1803">
       <c r="A1803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1804">
@@ -9482,7 +9482,7 @@
     </row>
     <row r="1810">
       <c r="A1810" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1811">
@@ -9607,7 +9607,7 @@
     </row>
     <row r="1835">
       <c r="A1835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1836">
@@ -9762,7 +9762,7 @@
     </row>
     <row r="1866">
       <c r="A1866" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1867">
@@ -9837,12 +9837,12 @@
     </row>
     <row r="1881">
       <c r="A1881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1882">
       <c r="A1882" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1883">
@@ -9887,7 +9887,7 @@
     </row>
     <row r="1891">
       <c r="A1891" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1892">
@@ -9897,7 +9897,7 @@
     </row>
     <row r="1893">
       <c r="A1893" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1894">
@@ -10092,7 +10092,7 @@
     </row>
     <row r="1932">
       <c r="A1932" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1933">
@@ -10127,7 +10127,7 @@
     </row>
     <row r="1939">
       <c r="A1939" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1940">
@@ -10192,7 +10192,7 @@
     </row>
     <row r="1952">
       <c r="A1952" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1953">
@@ -10312,7 +10312,7 @@
     </row>
     <row r="1976">
       <c r="A1976" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1977">
@@ -10327,7 +10327,7 @@
     </row>
     <row r="1979">
       <c r="A1979" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1980">
@@ -10352,7 +10352,7 @@
     </row>
     <row r="1984">
       <c r="A1984" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1985">
